--- a/test/output/CH數.xlsx
+++ b/test/output/CH數.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peggy\research\my\paper\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D96386D-7405-49DC-8FBA-C52BE4A801EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9481675-E46D-4B88-9F51-B0EAE7374C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -399,25 +399,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,7 +624,7 @@
                   <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>667</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>617</c:v>
@@ -1109,25 +1109,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24F1013-39B8-4661-8160-24C663252F7A}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I11" sqref="A7:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3107,25 +3107,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3176,7 +3176,7 @@
         <v>587</v>
       </c>
       <c r="H5" s="1">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="I5" s="1">
         <v>617</v>
@@ -3244,25 +3244,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">

--- a/test/output/CH數.xlsx
+++ b/test/output/CH數.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peggy\research\my\paper\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11AE0C-969C-4EBF-A372-C2A5D97AE7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6340F-470A-4FBB-8C0A-A0FF9420800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
   </bookViews>
@@ -2835,27 +2835,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>598</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2940,27 +2919,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3045,27 +3003,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>715</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>791</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3150,27 +3087,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>753</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>844</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3545,27 +3461,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3650,27 +3545,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3755,27 +3629,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>797</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3860,27 +3713,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>809</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4255,27 +4087,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>352</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4360,27 +4171,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4465,27 +4255,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>636</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>791</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4570,27 +4339,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>651</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>739</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>926</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4675,27 +4423,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>774</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>857</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13904,8 +13631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24F1013-39B8-4661-8160-24C663252F7A}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14274,27 +14001,13 @@
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <v>299</v>
-      </c>
-      <c r="D14" s="3">
-        <v>419</v>
-      </c>
-      <c r="E14" s="3">
-        <v>502</v>
-      </c>
-      <c r="F14" s="3">
-        <v>585</v>
-      </c>
-      <c r="G14" s="3">
-        <v>665</v>
-      </c>
-      <c r="H14" s="3">
-        <v>599</v>
-      </c>
-      <c r="I14" s="3">
-        <v>598</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="K14" s="2" t="s">
         <v>12</v>
       </c>
@@ -14327,27 +14040,13 @@
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3">
-        <v>21</v>
-      </c>
-      <c r="G15" s="3">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3">
-        <v>22</v>
-      </c>
-      <c r="I15" s="3">
-        <v>21</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
         <v>2</v>
@@ -14376,27 +14075,13 @@
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>314</v>
-      </c>
-      <c r="D16" s="3">
-        <v>400</v>
-      </c>
-      <c r="E16" s="3">
-        <v>472</v>
-      </c>
-      <c r="F16" s="3">
-        <v>557</v>
-      </c>
-      <c r="G16" s="3">
-        <v>632</v>
-      </c>
-      <c r="H16" s="3">
-        <v>715</v>
-      </c>
-      <c r="I16" s="3">
-        <v>791</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
         <v>3</v>
@@ -14425,27 +14110,13 @@
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
-        <v>343</v>
-      </c>
-      <c r="D17" s="3">
-        <v>430</v>
-      </c>
-      <c r="E17" s="3">
-        <v>509</v>
-      </c>
-      <c r="F17" s="3">
-        <v>601</v>
-      </c>
-      <c r="G17" s="3">
-        <v>675</v>
-      </c>
-      <c r="H17" s="3">
-        <v>753</v>
-      </c>
-      <c r="I17" s="3">
-        <v>844</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
         <v>4</v>
@@ -14553,27 +14224,13 @@
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
-        <v>299</v>
-      </c>
-      <c r="D20" s="3">
-        <v>394</v>
-      </c>
-      <c r="E20" s="3">
-        <v>458</v>
-      </c>
-      <c r="F20" s="3">
-        <v>520</v>
-      </c>
-      <c r="G20" s="3">
-        <v>521</v>
-      </c>
-      <c r="H20" s="3">
-        <v>588</v>
-      </c>
-      <c r="I20" s="3">
-        <v>625</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="K20" s="2" t="s">
         <v>11</v>
       </c>
@@ -14606,27 +14263,13 @@
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
-        <v>19</v>
-      </c>
-      <c r="D21" s="3">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3">
-        <v>19</v>
-      </c>
-      <c r="G21" s="3">
-        <v>22</v>
-      </c>
-      <c r="H21" s="3">
-        <v>21</v>
-      </c>
-      <c r="I21" s="3">
-        <v>22</v>
-      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
         <v>2</v>
@@ -14655,27 +14298,13 @@
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>314</v>
-      </c>
-      <c r="D22" s="3">
-        <v>397</v>
-      </c>
-      <c r="E22" s="3">
-        <v>479</v>
-      </c>
-      <c r="F22" s="3">
-        <v>552</v>
-      </c>
-      <c r="G22" s="3">
-        <v>627</v>
-      </c>
-      <c r="H22" s="3">
-        <v>714</v>
-      </c>
-      <c r="I22" s="3">
-        <v>797</v>
-      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -14704,27 +14333,13 @@
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>336</v>
-      </c>
-      <c r="D23" s="3">
-        <v>419</v>
-      </c>
-      <c r="E23" s="3">
-        <v>502</v>
-      </c>
-      <c r="F23" s="3">
-        <v>587</v>
-      </c>
-      <c r="G23" s="3">
-        <v>663</v>
-      </c>
-      <c r="H23" s="3">
-        <v>738</v>
-      </c>
-      <c r="I23" s="3">
-        <v>809</v>
-      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
         <v>4</v>
@@ -14832,27 +14447,13 @@
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3">
-        <v>336</v>
-      </c>
-      <c r="D26" s="3">
-        <v>421</v>
-      </c>
-      <c r="E26" s="3">
-        <v>504</v>
-      </c>
-      <c r="F26" s="3">
-        <v>527</v>
-      </c>
-      <c r="G26" s="3">
-        <v>442</v>
-      </c>
-      <c r="H26" s="3">
-        <v>331</v>
-      </c>
-      <c r="I26" s="3">
-        <v>352</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="K26" s="2" t="s">
         <v>13</v>
       </c>
@@ -14885,27 +14486,13 @@
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
-      <c r="D27" s="3">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3">
-        <v>20</v>
-      </c>
-      <c r="F27" s="3">
-        <v>21</v>
-      </c>
-      <c r="G27" s="3">
-        <v>20</v>
-      </c>
-      <c r="H27" s="3">
-        <v>22</v>
-      </c>
-      <c r="I27" s="3">
-        <v>18</v>
-      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
         <v>2</v>
@@ -14934,27 +14521,13 @@
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
-        <v>315</v>
-      </c>
-      <c r="D28" s="3">
-        <v>395</v>
-      </c>
-      <c r="E28" s="3">
-        <v>479</v>
-      </c>
-      <c r="F28" s="3">
-        <v>549</v>
-      </c>
-      <c r="G28" s="3">
-        <v>636</v>
-      </c>
-      <c r="H28" s="3">
-        <v>707</v>
-      </c>
-      <c r="I28" s="3">
-        <v>791</v>
-      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
         <v>3</v>
@@ -14983,27 +14556,13 @@
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>372</v>
-      </c>
-      <c r="D29" s="3">
-        <v>467</v>
-      </c>
-      <c r="E29" s="3">
-        <v>553</v>
-      </c>
-      <c r="F29" s="3">
-        <v>651</v>
-      </c>
-      <c r="G29" s="3">
-        <v>739</v>
-      </c>
-      <c r="H29" s="3">
-        <v>830</v>
-      </c>
-      <c r="I29" s="3">
-        <v>926</v>
-      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -15031,27 +14590,13 @@
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="3">
-        <v>332</v>
-      </c>
-      <c r="D30" s="3">
-        <v>420</v>
-      </c>
-      <c r="E30" s="3">
-        <v>507</v>
-      </c>
-      <c r="F30" s="3">
-        <v>589</v>
-      </c>
-      <c r="G30" s="3">
-        <v>682</v>
-      </c>
-      <c r="H30" s="3">
-        <v>774</v>
-      </c>
-      <c r="I30" s="3">
-        <v>857</v>
-      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="L30" s="3" t="s">
         <v>10</v>
       </c>

--- a/test/output/CH數.xlsx
+++ b/test/output/CH數.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peggy\research\my\paper\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F74F9-A4F2-47C8-BC41-9292F51A15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54896B26-FC38-4021-A4A5-09D184153514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -725,12 +725,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1428,12 +1423,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2131,12 +2121,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4339,8 +4324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24F1013-39B8-4661-8160-24C663252F7A}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/test/output/CH數.xlsx
+++ b/test/output/CH數.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peggy\research\my\paper\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54896B26-FC38-4021-A4A5-09D184153514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F4887-E08E-40DD-A41E-E93C915A2157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
+    <workbookView xWindow="4245" yWindow="4230" windowWidth="17250" windowHeight="8865" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>my</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CH數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -60,6 +56,10 @@
   </si>
   <si>
     <t>special2 600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +165,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -178,19 +178,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>normal </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>場景 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>CH</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>數</a:t>
             </a:r>
           </a:p>
@@ -209,7 +209,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -246,7 +246,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -255,8 +255,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -351,7 +351,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -360,8 +360,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -411,25 +411,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,7 +456,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -465,8 +465,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -555,13 +555,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -570,7 +570,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -775,7 +775,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -863,7 +863,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -876,19 +876,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>special </a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+              <a:t>Special1 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>場景 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>CH</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>數</a:t>
             </a:r>
           </a:p>
@@ -907,7 +907,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -944,7 +944,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -953,8 +953,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1049,7 +1049,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1058,8 +1058,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1109,25 +1109,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1154,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1163,8 +1163,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1253,7 +1253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1268,7 +1268,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1473,7 +1473,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1561,7 +1561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1574,19 +1574,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>special2 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>場景 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>CH</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>數</a:t>
             </a:r>
           </a:p>
@@ -1605,7 +1605,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1642,7 +1642,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1651,8 +1651,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1747,7 +1747,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1756,8 +1756,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1807,25 +1807,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,7 +1852,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1861,8 +1861,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1951,13 +1951,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1966,7 +1966,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2171,7 +2171,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4324,18 +4324,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24F1013-39B8-4661-8160-24C663252F7A}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="R13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1">
@@ -4360,9 +4360,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4389,34 +4389,34 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -4443,10 +4443,10 @@
         <v>794</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>341</v>
@@ -4470,9 +4470,9 @@
         <v>835</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -4497,9 +4497,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -4526,34 +4526,34 @@
         <v>807</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I9" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -4580,10 +4580,10 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>341</v>
@@ -4607,9 +4607,9 @@
         <v>826</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -4634,9 +4634,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -4663,34 +4663,34 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -4717,10 +4717,10 @@
         <v>797</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>370</v>
@@ -4744,9 +4744,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>

--- a/test/output/CH數.xlsx
+++ b/test/output/CH數.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peggy\research\my\paper\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F74F9-A4F2-47C8-BC41-9292F51A15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F4887-E08E-40DD-A41E-E93C915A2157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
+    <workbookView xWindow="4245" yWindow="4230" windowWidth="17250" windowHeight="8865" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>my</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CH數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -60,6 +56,10 @@
   </si>
   <si>
     <t>special2 600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +165,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -178,19 +178,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>normal </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>場景 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>CH</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>數</a:t>
             </a:r>
           </a:p>
@@ -209,7 +209,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -246,7 +246,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -255,8 +255,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -351,7 +351,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -360,8 +360,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -411,25 +411,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,7 +456,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -465,8 +465,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -555,13 +555,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -570,7 +570,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -725,12 +725,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -780,7 +775,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -868,7 +863,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -881,19 +876,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>special </a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+              <a:t>Special1 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>場景 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>CH</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>數</a:t>
             </a:r>
           </a:p>
@@ -912,7 +907,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -949,7 +944,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -958,8 +953,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1054,7 +1049,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1063,8 +1058,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1114,25 +1109,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,7 +1154,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1168,8 +1163,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1258,7 +1253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1273,7 +1268,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1428,12 +1423,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1483,7 +1473,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1571,7 +1561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1584,19 +1574,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>special2 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>場景 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
               <a:t>CH</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>數</a:t>
             </a:r>
           </a:p>
@@ -1615,7 +1605,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1652,7 +1642,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1661,8 +1651,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1757,7 +1747,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1766,8 +1756,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1817,25 +1807,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,7 +1852,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1871,8 +1861,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1961,13 +1951,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1976,7 +1966,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2131,12 +2121,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2186,7 +2171,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4339,18 +4324,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24F1013-39B8-4661-8160-24C663252F7A}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I17"/>
+    <sheetView tabSelected="1" topLeftCell="R13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1">
@@ -4375,9 +4360,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4404,34 +4389,34 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -4458,10 +4443,10 @@
         <v>794</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>341</v>
@@ -4485,9 +4470,9 @@
         <v>835</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -4512,9 +4497,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -4541,34 +4526,34 @@
         <v>807</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I9" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -4595,10 +4580,10 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>341</v>
@@ -4622,9 +4607,9 @@
         <v>826</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -4649,9 +4634,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -4678,34 +4663,34 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -4732,10 +4717,10 @@
         <v>797</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>370</v>
@@ -4759,9 +4744,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
